--- a/sc/qa/uitest/data/autofilter/time_value.xlsx
+++ b/sc/qa/uitest/data/autofilter/time_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\libreoffice\core\sc\qa\uitest\data\autofilter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41172E3-79FD-461A-9F4E-0FEE63F4333A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57809891-B0B6-4F27-891C-F1F32DEE88F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{72CDF0BE-0EEE-410F-B638-883EF82BE211}"/>
+    <workbookView xWindow="7350" yWindow="870" windowWidth="9960" windowHeight="8300" xr2:uid="{72CDF0BE-0EEE-410F-B638-883EF82BE211}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -57,8 +57,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -99,10 +100,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -421,16 +423,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
@@ -438,7 +440,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>0.23300000000000001</v>
       </c>
       <c r="B2" t="s">
@@ -446,7 +448,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -454,7 +456,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>0.54300000000000004</v>
       </c>
       <c r="B4" t="s">
@@ -462,7 +464,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>0.23400499999999999</v>
       </c>
       <c r="B5" t="s">
@@ -470,7 +472,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>0.65400539999999996</v>
       </c>
       <c r="B6" t="s">
